--- a/medicine/Psychotrope/L'Étoile_(AOC)/L'Étoile_(AOC).xlsx
+++ b/medicine/Psychotrope/L'Étoile_(AOC)/L'Étoile_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27%C3%89toile_(AOC)</t>
+          <t>L'Étoile_(AOC)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Étoile[1] est un vin d'appellation d'origine contrôlée produit autour de L'Étoile, dans le vignoble du Jura.
+L'Étoile est un vin d'appellation d'origine contrôlée produit autour de L'Étoile, dans le vignoble du Jura.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27%C3%89toile_(AOC)</t>
+          <t>L'Étoile_(AOC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Moyen Âge
-Période moderne
-Période contemporaine
-Ce vin a obtenu une AOC en 1937. Depuis 2001 le mousseux produit sur la zone ne peut plus s’appeler l’étoile car il est englobé dans l’appellation crémant-du-jura. Le cahier des charges de l'appellation a été publié au Journal officiel le 17 octobre 2009[4].
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce vin a obtenu une AOC en 1937. Depuis 2001 le mousseux produit sur la zone ne peut plus s’appeler l’étoile car il est englobé dans l’appellation crémant-du-jura. Le cahier des charges de l'appellation a été publié au Journal officiel le 17 octobre 2009.
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27%C3%89toile_(AOC)</t>
+          <t>L'Étoile_(AOC)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +561,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'appellation tire son nom des cinq collines entourant le village de L'Étoile ainsi que des très nombreux fossiles d'étoiles de mer concentrés sur cette zone[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appellation tire son nom des cinq collines entourant le village de L'Étoile ainsi que des très nombreux fossiles d'étoiles de mer concentrés sur cette zone.
 </t>
         </is>
       </c>
@@ -559,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27%C3%89toile_(AOC)</t>
+          <t>L'Étoile_(AOC)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,12 +594,12 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Il est produit sur quatre communes : L'Étoile, Plainoiseau, Quintigny et Saint-Didier. 
-Géologie et orographie
-Le sous-sol est constitué de marnes rouges et grises.
-Climatologie</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est produit sur quatre communes : L'Étoile, Plainoiseau, Quintigny et Saint-Didier. 
+</t>
         </is>
       </c>
     </row>
@@ -592,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27%C3%89toile_(AOC)</t>
+          <t>L'Étoile_(AOC)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,15 +624,92 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Géologie et orographie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sous-sol est constitué de marnes rouges et grises.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>L'Étoile_(AOC)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27%C3%89toile_(AOC)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-Le vin de l’étoile se vinifie uniquement en blanc et en jaune : vin blanc, vin jaune et vin de paille. Le vignoble couvre 75 hectares. 
-Encépagement
-Les cépages autorisés sont le chardonnay, le poulsard, le trousseau et le savagnin pour les vins blancs et le savagnin exclusivement pour les vins jaunes.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vin de l’étoile se vinifie uniquement en blanc et en jaune : vin blanc, vin jaune et vin de paille. Le vignoble couvre 75 hectares. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L'Étoile_(AOC)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27%C3%89toile_(AOC)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages autorisés sont le chardonnay, le poulsard, le trousseau et le savagnin pour les vins blancs et le savagnin exclusivement pour les vins jaunes.
 </t>
         </is>
       </c>
